--- a/biology/Botanique/Maxillaria/Maxillaria.xlsx
+++ b/biology/Botanique/Maxillaria/Maxillaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maxillaria est un genre d'orchidées originaire d'Amérique tropicale, comprenant plus de 700 espèces connues.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une orchidée de taille petite à moyenne, produisant des pseudobulbes ovoïdes assez étroits, soit portés par un rhizome très court ou allongés, portant une ou deux feuilles le plus souvent assez grandes et étroites. Les inflorescences particulièrement courtes portent une seule fleur à chaque fois de petite taille. Les fleurs sont de formes variées. Le labelle est largement étalé, les pétales et le sépale dorsal sont souvent repliés sur l'avant, alors que les deux sépales latéraux sont souvent déployés. La fleur est rarement monochrome, dans des tons jaune, brun, rose, verdâtre ou blanc. D'autres portent des couleurs plus insolites : Maxillaria schunkeana est, par exemple, d'un lie-de-vin très sombre, presque noir. Les fleurs sont souvent tachetées. Plusieurs espèces sont parfumées.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Largement répandu, on trouve ce genre depuis la Floride et le nord de l'Amérique centrale jusqu'au nord de l'Argentine, en passant par les Antilles, et à une altitude comprise entre 0 et 3 500 m. Épiphyte, lithophyte et plus rarement terrestre.
 </t>
@@ -573,7 +589,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonymes :
 Camaridium Lindl.
@@ -616,7 +634,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C'est une orchidée de culture plutôt facile, mais certaines espèces demandent des conditions de culture assez spécifiques et difficiles à obtenir.
 Substrat : On peut les cultiver sur différents supports : pots, paniers suspendus, écorces. Toutefois, en ce qui concerne les deux derniers supports de culture, les arrosages et brumisations doivent être plus importants car elle s'asséchera plus vite sans. En pot ou en panier, il faut la planter dans un mélange d’écorces fines (calibre 1 cm), charbon de bois (calibre 1 cm) ainsi qu'un peu de sphaigne hachée.
@@ -651,7 +671,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maxillaria acervata Rchb.f.
